--- a/biology/Botanique/Belle_de_Boskoop/Belle_de_Boskoop.xlsx
+++ b/biology/Botanique/Belle_de_Boskoop/Belle_de_Boskoop.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Belle de Boskoop ou Belle de Boscoop est une variété de pomme qui, comme son nom l'indique, est originaire de Boskoop, aussi écrit Boscoop aux Pays-Bas où elle naquit en 1856.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Reinette de Montfort, 
 Goldreinette, 
@@ -545,10 +559,12 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette pomme rustique, ferme, acidulée et parfumée est disponible de novembre à fin février.
-De couleur vert-gris nuancée de rouge, sa coloration varie selon les clones[1]. Elle est aussi appréciée en pomme à croquer qu'en pomme à cuire car elle résiste bien à la cuisson. Elle est recherchée pour la cuisine et se trouve être le principal ingrédient de la recette de la rombosse.
+De couleur vert-gris nuancée de rouge, sa coloration varie selon les clones. Elle est aussi appréciée en pomme à croquer qu'en pomme à cuire car elle résiste bien à la cuisson. Elle est recherchée pour la cuisine et se trouve être le principal ingrédient de la recette de la rombosse.
 Sa chair est ferme, finement acidulée et légèrement jaune et sucrée.
 La Belle de Boskoop contient plus du double de vitamine C qu’une Golden Delicious.
 </t>
@@ -579,11 +595,13 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Variété triploïde. Cette caractéristique la rend peu appropriée aux petits jardins familiaux.
-Groupe de pollinisation : C[2].
-S-génotype : S2S3S5[3].
+Groupe de pollinisation : C.
+S-génotype : S2S3S5.
 Pollinisateurs : Discovery (S10S24), Empire (S10S19), Jonathan (S7S9), James Grieve, Melba ou Reine des reinettes.
 </t>
         </is>
@@ -613,7 +631,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur les terrains humides qu'il apprécie, ce pommier est très vigoureux mais supporte mal le gel. Les fruits ont tendance à éclater.
 Le cultivar supporte tous types de porte-greffes.
